--- a/Stroop_Results/VP_00_Stroop.xlsx
+++ b/Stroop_Results/VP_00_Stroop.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="316">
   <si>
     <t>VP</t>
   </si>
@@ -292,6 +292,672 @@
   </si>
   <si>
     <t>RT</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VP_00</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>00.00.0000</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>KeyPressed</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>0.80625</t>
+  </si>
+  <si>
+    <t>1.3816</t>
+  </si>
+  <si>
+    <t>0.78075</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>0.80334</t>
+  </si>
+  <si>
+    <t>1.9481</t>
+  </si>
+  <si>
+    <t>1.6277</t>
+  </si>
+  <si>
+    <t>0.6165</t>
+  </si>
+  <si>
+    <t>0.99121</t>
+  </si>
+  <si>
+    <t>0.85346</t>
+  </si>
+  <si>
+    <t>0.83276</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>1.0277</t>
+  </si>
+  <si>
+    <t>1.0571</t>
+  </si>
+  <si>
+    <t>1.2177</t>
+  </si>
+  <si>
+    <t>0.37094</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VP_00</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>00.00.0000</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>KeyPressed</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>0.94295</t>
+  </si>
+  <si>
+    <t>0.29704</t>
+  </si>
+  <si>
+    <t>0.20543</t>
+  </si>
+  <si>
+    <t>0.45249</t>
+  </si>
+  <si>
+    <t>0.32627</t>
+  </si>
+  <si>
+    <t>0.42679</t>
+  </si>
+  <si>
+    <t>0.2767</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>0.19177</t>
+  </si>
+  <si>
+    <t>0.32127</t>
+  </si>
+  <si>
+    <t>0.9742</t>
+  </si>
+  <si>
+    <t>0.54936</t>
+  </si>
+  <si>
+    <t>0.77634</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>1.255</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VP_00</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>03.04.2000</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>KeyPressed</t>
+  </si>
+  <si>
+    <t>MISSED</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>GRUEN</t>
+  </si>
+  <si>
+    <t>BLAU</t>
+  </si>
+  <si>
+    <t>GELB</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>0.28229</t>
+  </si>
+  <si>
+    <t>0.24833</t>
+  </si>
+  <si>
+    <t>0.27657</t>
+  </si>
+  <si>
+    <t>0.33119</t>
+  </si>
+  <si>
+    <t>0.24743</t>
+  </si>
+  <si>
+    <t>0.22688</t>
+  </si>
+  <si>
+    <t>0.26923</t>
+  </si>
+  <si>
+    <t>0.20832</t>
+  </si>
+  <si>
+    <t>0.2302</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.26244</t>
+  </si>
+  <si>
+    <t>0.24941</t>
+  </si>
+  <si>
+    <t>0.25174</t>
+  </si>
+  <si>
+    <t>0.25118</t>
+  </si>
+  <si>
+    <t>0.24403</t>
   </si>
   <si>
     <t>Correct</t>
@@ -315,7 +981,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -325,14 +991,20 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,69 +1025,69 @@
     <col min="6" max="6" width="7.07421875" customWidth="true"/>
     <col min="7" max="7" width="11.2578125" customWidth="true"/>
     <col min="8" max="8" width="10.53125" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="7.2578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D2" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1.217424999922514</v>
+        <v>282</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>299</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -423,31 +1095,31 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D3" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="0">
-        <v>1.217424999922514</v>
+        <v>283</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>300</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -455,31 +1127,31 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D4" s="0">
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="0">
-        <v>1.217424999922514</v>
+        <v>284</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>301</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -487,95 +1159,95 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="0">
-        <v>1.217424999922514</v>
+        <v>285</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>302</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="0">
-        <v>1.1134552999865264</v>
+        <v>286</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D7" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="0">
-        <v>0.32712760008871555</v>
+        <v>287</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>304</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -583,31 +1255,31 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D8" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="0">
-        <v>0.31638809992000461</v>
+        <v>288</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>305</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -615,31 +1287,31 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D9" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="0">
-        <v>0.25519510009326041</v>
+        <v>289</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>306</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
@@ -647,31 +1319,31 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D10" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="0">
-        <v>0.36466150009073317</v>
+        <v>290</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -679,127 +1351,127 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D11" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="0">
-        <v>0.25345299998298287</v>
+        <v>291</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D12" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="0">
-        <v>0.273643400054425</v>
+        <v>292</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>309</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D13" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="0">
-        <v>0.23663940001279116</v>
+        <v>293</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D14" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0.17021200014278293</v>
+        <v>294</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -807,95 +1479,95 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D15" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="0">
-        <v>0.20015709986910224</v>
+        <v>295</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>312</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D16" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="0">
-        <v>0.20888820011168718</v>
+        <v>296</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>313</v>
       </c>
       <c r="J16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D17" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="0">
-        <v>0.14939419995062053</v>
+        <v>297</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>314</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
